--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H2">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I2">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J2">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.340928</v>
+        <v>2.94415</v>
       </c>
       <c r="N2">
-        <v>10.022784</v>
+        <v>8.83245</v>
       </c>
       <c r="O2">
-        <v>0.3111720339385076</v>
+        <v>0.2419168435141529</v>
       </c>
       <c r="P2">
-        <v>0.3111720339385076</v>
+        <v>0.2419168435141529</v>
       </c>
       <c r="Q2">
-        <v>12.62311958109867</v>
+        <v>13.46594051201667</v>
       </c>
       <c r="R2">
-        <v>113.608076229888</v>
+        <v>121.19346460815</v>
       </c>
       <c r="S2">
-        <v>0.1973077516331902</v>
+        <v>0.1579499210461402</v>
       </c>
       <c r="T2">
-        <v>0.1973077516331903</v>
+        <v>0.1579499210461402</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H3">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I3">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J3">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.482803</v>
       </c>
       <c r="O3">
-        <v>0.5117328014369795</v>
+        <v>0.4514565804533973</v>
       </c>
       <c r="P3">
-        <v>0.5117328014369795</v>
+        <v>0.4514565804533974</v>
       </c>
       <c r="Q3">
-        <v>20.75914170161623</v>
+        <v>25.12965764530678</v>
       </c>
       <c r="R3">
-        <v>186.832275314546</v>
+        <v>226.166918807761</v>
       </c>
       <c r="S3">
-        <v>0.3244791866753591</v>
+        <v>0.2947605061414537</v>
       </c>
       <c r="T3">
-        <v>0.3244791866753592</v>
+        <v>0.2947605061414538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H4">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I4">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J4">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3993656666666666</v>
+        <v>1.51732</v>
       </c>
       <c r="N4">
-        <v>1.198097</v>
+        <v>4.55196</v>
       </c>
       <c r="O4">
-        <v>0.03719667912085346</v>
+        <v>0.1246761425202162</v>
       </c>
       <c r="P4">
-        <v>0.03719667912085346</v>
+        <v>0.1246761425202162</v>
       </c>
       <c r="Q4">
-        <v>1.508934214361555</v>
+        <v>6.939911640946666</v>
       </c>
       <c r="R4">
-        <v>13.580407929254</v>
+        <v>62.45920476852</v>
       </c>
       <c r="S4">
-        <v>0.02358564499728521</v>
+        <v>0.08140229750580963</v>
       </c>
       <c r="T4">
-        <v>0.02358564499728522</v>
+        <v>0.08140229750580966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H5">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I5">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J5">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4835966666666667</v>
+        <v>0.504479</v>
       </c>
       <c r="N5">
-        <v>1.45079</v>
+        <v>1.513437</v>
       </c>
       <c r="O5">
-        <v>0.04504190403760547</v>
+        <v>0.04145236054520875</v>
       </c>
       <c r="P5">
-        <v>0.04504190403760547</v>
+        <v>0.04145236054520875</v>
       </c>
       <c r="Q5">
-        <v>1.827186503975556</v>
+        <v>2.307383864124333</v>
       </c>
       <c r="R5">
-        <v>16.44467853578</v>
+        <v>20.766454777119</v>
       </c>
       <c r="S5">
-        <v>0.02856013987649699</v>
+        <v>0.02706465982352657</v>
       </c>
       <c r="T5">
-        <v>0.02856013987649701</v>
+        <v>0.02706465982352658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H6">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I6">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J6">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.018436666666667</v>
+        <v>1.709874333333333</v>
       </c>
       <c r="N6">
-        <v>3.05531</v>
+        <v>5.129623</v>
       </c>
       <c r="O6">
-        <v>0.09485658146605391</v>
+        <v>0.1404980729670249</v>
       </c>
       <c r="P6">
-        <v>0.09485658146605391</v>
+        <v>0.1404980729670249</v>
       </c>
       <c r="Q6">
-        <v>3.847987094935556</v>
+        <v>7.820615816344556</v>
       </c>
       <c r="R6">
-        <v>34.63188385442</v>
+        <v>70.38554234710101</v>
       </c>
       <c r="S6">
-        <v>0.06014659665841371</v>
+        <v>0.09173259377029758</v>
       </c>
       <c r="T6">
-        <v>0.06014659665841373</v>
+        <v>0.09173259377029759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.171665</v>
       </c>
       <c r="I7">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J7">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.340928</v>
+        <v>2.94415</v>
       </c>
       <c r="N7">
-        <v>10.022784</v>
+        <v>8.83245</v>
       </c>
       <c r="O7">
-        <v>0.3111720339385076</v>
+        <v>0.2419168435141529</v>
       </c>
       <c r="P7">
-        <v>0.3111720339385076</v>
+        <v>0.2419168435141529</v>
       </c>
       <c r="Q7">
-        <v>4.64574413504</v>
+        <v>4.09400250325</v>
       </c>
       <c r="R7">
-        <v>41.81169721536</v>
+        <v>36.84602252925</v>
       </c>
       <c r="S7">
-        <v>0.07261606959030657</v>
+        <v>0.04802095862327523</v>
       </c>
       <c r="T7">
-        <v>0.0726160695903066</v>
+        <v>0.04802095862327522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.171665</v>
       </c>
       <c r="I8">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J8">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>16.482803</v>
       </c>
       <c r="O8">
-        <v>0.5117328014369795</v>
+        <v>0.4514565804533973</v>
       </c>
       <c r="P8">
-        <v>0.5117328014369795</v>
+        <v>0.4514565804533974</v>
       </c>
       <c r="Q8">
         <v>7.640081375221667</v>
@@ -948,10 +948,10 @@
         <v>68.76073237699501</v>
       </c>
       <c r="S8">
-        <v>0.1194195514630779</v>
+        <v>0.08961499933298198</v>
       </c>
       <c r="T8">
-        <v>0.1194195514630779</v>
+        <v>0.08961499933298198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.171665</v>
       </c>
       <c r="I9">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J9">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3993656666666666</v>
+        <v>1.51732</v>
       </c>
       <c r="N9">
-        <v>1.198097</v>
+        <v>4.55196</v>
       </c>
       <c r="O9">
-        <v>0.03719667912085346</v>
+        <v>0.1246761425202162</v>
       </c>
       <c r="P9">
-        <v>0.03719667912085346</v>
+        <v>0.1246761425202162</v>
       </c>
       <c r="Q9">
-        <v>0.5553399246116665</v>
+        <v>2.1099169126</v>
       </c>
       <c r="R9">
-        <v>4.998059321504999</v>
+        <v>18.9892522134</v>
       </c>
       <c r="S9">
-        <v>0.008680332243809456</v>
+        <v>0.02474845403198477</v>
       </c>
       <c r="T9">
-        <v>0.008680332243809458</v>
+        <v>0.02474845403198477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.171665</v>
       </c>
       <c r="I10">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J10">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4835966666666667</v>
+        <v>0.504479</v>
       </c>
       <c r="N10">
-        <v>1.45079</v>
+        <v>1.513437</v>
       </c>
       <c r="O10">
-        <v>0.04504190403760547</v>
+        <v>0.04145236054520875</v>
       </c>
       <c r="P10">
-        <v>0.04504190403760547</v>
+        <v>0.04145236054520875</v>
       </c>
       <c r="Q10">
-        <v>0.6724677628166666</v>
+        <v>0.7015057958450001</v>
       </c>
       <c r="R10">
-        <v>6.05220986535</v>
+        <v>6.313552162605</v>
       </c>
       <c r="S10">
-        <v>0.01051111822832068</v>
+        <v>0.008228373277622153</v>
       </c>
       <c r="T10">
-        <v>0.01051111822832069</v>
+        <v>0.008228373277622153</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>4.171665</v>
       </c>
       <c r="I11">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J11">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.018436666666667</v>
+        <v>1.709874333333333</v>
       </c>
       <c r="N11">
-        <v>3.05531</v>
+        <v>5.129623</v>
       </c>
       <c r="O11">
-        <v>0.09485658146605391</v>
+        <v>0.1404980729670249</v>
       </c>
       <c r="P11">
-        <v>0.09485658146605391</v>
+        <v>0.1404980729670249</v>
       </c>
       <c r="Q11">
-        <v>1.416192199016667</v>
+        <v>2.377674303588333</v>
       </c>
       <c r="R11">
-        <v>12.74572979115</v>
+        <v>21.399068732295</v>
       </c>
       <c r="S11">
-        <v>0.0221360256371842</v>
+        <v>0.02788913764991604</v>
       </c>
       <c r="T11">
-        <v>0.0221360256371842</v>
+        <v>0.02788913764991604</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H12">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I12">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J12">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.340928</v>
+        <v>2.94415</v>
       </c>
       <c r="N12">
-        <v>10.022784</v>
+        <v>8.83245</v>
       </c>
       <c r="O12">
-        <v>0.3111720339385076</v>
+        <v>0.2419168435141529</v>
       </c>
       <c r="P12">
-        <v>0.3111720339385076</v>
+        <v>0.2419168435141529</v>
       </c>
       <c r="Q12">
-        <v>0.8402523011413333</v>
+        <v>1.044359683216667</v>
       </c>
       <c r="R12">
-        <v>7.562270710271999</v>
+        <v>9.39923714895</v>
       </c>
       <c r="S12">
-        <v>0.01313370211520892</v>
+        <v>0.01224990778480281</v>
       </c>
       <c r="T12">
-        <v>0.01313370211520893</v>
+        <v>0.01224990778480281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H13">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I13">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J13">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>16.482803</v>
       </c>
       <c r="O13">
-        <v>0.5117328014369795</v>
+        <v>0.4514565804533973</v>
       </c>
       <c r="P13">
-        <v>0.5117328014369795</v>
+        <v>0.4514565804533974</v>
       </c>
       <c r="Q13">
-        <v>1.381822969547111</v>
+        <v>1.948946772368111</v>
       </c>
       <c r="R13">
-        <v>12.436406725924</v>
+        <v>17.540520951313</v>
       </c>
       <c r="S13">
-        <v>0.02159881172992175</v>
+        <v>0.02286034076446185</v>
       </c>
       <c r="T13">
-        <v>0.02159881172992175</v>
+        <v>0.02286034076446185</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H14">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I14">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J14">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3993656666666666</v>
+        <v>1.51732</v>
       </c>
       <c r="N14">
-        <v>1.198097</v>
+        <v>4.55196</v>
       </c>
       <c r="O14">
-        <v>0.03719667912085346</v>
+        <v>0.1246761425202162</v>
       </c>
       <c r="P14">
-        <v>0.03719667912085346</v>
+        <v>0.1246761425202162</v>
       </c>
       <c r="Q14">
-        <v>0.1004415301417777</v>
+        <v>0.5382293139066666</v>
       </c>
       <c r="R14">
-        <v>0.9039737712759998</v>
+        <v>4.84406382516</v>
       </c>
       <c r="S14">
-        <v>0.001569967895459531</v>
+        <v>0.006313207574354907</v>
       </c>
       <c r="T14">
-        <v>0.001569967895459531</v>
+        <v>0.006313207574354908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H15">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I15">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J15">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4835966666666667</v>
+        <v>0.504479</v>
       </c>
       <c r="N15">
-        <v>1.45079</v>
+        <v>1.513437</v>
       </c>
       <c r="O15">
-        <v>0.04504190403760547</v>
+        <v>0.04145236054520875</v>
       </c>
       <c r="P15">
-        <v>0.04504190403760547</v>
+        <v>0.04145236054520875</v>
       </c>
       <c r="Q15">
-        <v>0.1216258512577778</v>
+        <v>0.1789506406363333</v>
       </c>
       <c r="R15">
-        <v>1.09463266132</v>
+        <v>1.610555765727</v>
       </c>
       <c r="S15">
-        <v>0.001901092919065596</v>
+        <v>0.002099017111685728</v>
       </c>
       <c r="T15">
-        <v>0.001901092919065597</v>
+        <v>0.002099017111685728</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H16">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I16">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J16">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.018436666666667</v>
+        <v>1.709874333333333</v>
       </c>
       <c r="N16">
-        <v>3.05531</v>
+        <v>5.129623</v>
       </c>
       <c r="O16">
-        <v>0.09485658146605391</v>
+        <v>0.1404980729670249</v>
       </c>
       <c r="P16">
-        <v>0.09485658146605391</v>
+        <v>0.1404980729670249</v>
       </c>
       <c r="Q16">
-        <v>0.2561395374977777</v>
+        <v>0.6065328930592223</v>
       </c>
       <c r="R16">
-        <v>2.30525583748</v>
+        <v>5.458796037533</v>
       </c>
       <c r="S16">
-        <v>0.004003631267482067</v>
+        <v>0.007114380349824063</v>
       </c>
       <c r="T16">
-        <v>0.004003631267482067</v>
+        <v>0.007114380349824063</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H17">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I17">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J17">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.340928</v>
+        <v>2.94415</v>
       </c>
       <c r="N17">
-        <v>10.022784</v>
+        <v>8.83245</v>
       </c>
       <c r="O17">
-        <v>0.3111720339385076</v>
+        <v>0.2419168435141529</v>
       </c>
       <c r="P17">
-        <v>0.3111720339385076</v>
+        <v>0.2419168435141529</v>
       </c>
       <c r="Q17">
-        <v>1.187127491669333</v>
+        <v>1.41237647045</v>
       </c>
       <c r="R17">
-        <v>10.684147425024</v>
+        <v>12.71138823405</v>
       </c>
       <c r="S17">
-        <v>0.01855559196586795</v>
+        <v>0.01656659271559446</v>
       </c>
       <c r="T17">
-        <v>0.01855559196586796</v>
+        <v>0.01656659271559446</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H18">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I18">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J18">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>16.482803</v>
       </c>
       <c r="O18">
-        <v>0.5117328014369795</v>
+        <v>0.4514565804533973</v>
       </c>
       <c r="P18">
-        <v>0.5117328014369795</v>
+        <v>0.4514565804533974</v>
       </c>
       <c r="Q18">
-        <v>1.952270804306445</v>
+        <v>2.635726567856333</v>
       </c>
       <c r="R18">
-        <v>17.570437238758</v>
+        <v>23.721539110707</v>
       </c>
       <c r="S18">
-        <v>0.03051529065395246</v>
+        <v>0.03091598413943793</v>
       </c>
       <c r="T18">
-        <v>0.03051529065395247</v>
+        <v>0.03091598413943793</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H19">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I19">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J19">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3993656666666666</v>
+        <v>1.51732</v>
       </c>
       <c r="N19">
-        <v>1.198097</v>
+        <v>4.55196</v>
       </c>
       <c r="O19">
-        <v>0.03719667912085346</v>
+        <v>0.1246761425202162</v>
       </c>
       <c r="P19">
-        <v>0.03719667912085346</v>
+        <v>0.1246761425202162</v>
       </c>
       <c r="Q19">
-        <v>0.1419060698491111</v>
+        <v>0.7278933023599999</v>
       </c>
       <c r="R19">
-        <v>1.277154628642</v>
+        <v>6.55103972124</v>
       </c>
       <c r="S19">
-        <v>0.002218086219111426</v>
+        <v>0.008537887831539082</v>
       </c>
       <c r="T19">
-        <v>0.002218086219111427</v>
+        <v>0.008537887831539083</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H20">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I20">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J20">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4835966666666667</v>
+        <v>0.504479</v>
       </c>
       <c r="N20">
-        <v>1.45079</v>
+        <v>1.513437</v>
       </c>
       <c r="O20">
-        <v>0.04504190403760547</v>
+        <v>0.04145236054520875</v>
       </c>
       <c r="P20">
-        <v>0.04504190403760547</v>
+        <v>0.04145236054520875</v>
       </c>
       <c r="Q20">
-        <v>0.1718357587711111</v>
+        <v>0.242010179317</v>
       </c>
       <c r="R20">
-        <v>1.54652182894</v>
+        <v>2.178091613853</v>
       </c>
       <c r="S20">
-        <v>0.002685907155952036</v>
+        <v>0.002838679458101788</v>
       </c>
       <c r="T20">
-        <v>0.002685907155952037</v>
+        <v>0.002838679458101788</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H21">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I21">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J21">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.018436666666667</v>
+        <v>1.709874333333333</v>
       </c>
       <c r="N21">
-        <v>3.05531</v>
+        <v>5.129623</v>
       </c>
       <c r="O21">
-        <v>0.09485658146605391</v>
+        <v>0.1404980729670249</v>
       </c>
       <c r="P21">
-        <v>0.09485658146605391</v>
+        <v>0.1404980729670249</v>
       </c>
       <c r="Q21">
-        <v>0.3618797428511111</v>
+        <v>0.8202660448096667</v>
       </c>
       <c r="R21">
-        <v>3.25691768566</v>
+        <v>7.382394403287</v>
       </c>
       <c r="S21">
-        <v>0.005656420979364219</v>
+        <v>0.009621381952407974</v>
       </c>
       <c r="T21">
-        <v>0.00565642097936422</v>
+        <v>0.009621381952407974</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H22">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I22">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J22">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.340928</v>
+        <v>2.94415</v>
       </c>
       <c r="N22">
-        <v>10.022784</v>
+        <v>8.83245</v>
       </c>
       <c r="O22">
-        <v>0.3111720339385076</v>
+        <v>0.2419168435141529</v>
       </c>
       <c r="P22">
-        <v>0.3111720339385076</v>
+        <v>0.2419168435141529</v>
       </c>
       <c r="Q22">
-        <v>0.6115490749013334</v>
+        <v>0.6078187861166667</v>
       </c>
       <c r="R22">
-        <v>5.503941674112</v>
+        <v>5.47036907505</v>
       </c>
       <c r="S22">
-        <v>0.009558918633933869</v>
+        <v>0.007129463344340182</v>
       </c>
       <c r="T22">
-        <v>0.009558918633933869</v>
+        <v>0.007129463344340182</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H23">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I23">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J23">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>16.482803</v>
       </c>
       <c r="O23">
-        <v>0.5117328014369795</v>
+        <v>0.4514565804533973</v>
       </c>
       <c r="P23">
-        <v>0.5117328014369795</v>
+        <v>0.4514565804533974</v>
       </c>
       <c r="Q23">
-        <v>1.005712876425445</v>
+        <v>1.134289728360778</v>
       </c>
       <c r="R23">
-        <v>9.051415887829002</v>
+        <v>10.208607555247</v>
       </c>
       <c r="S23">
-        <v>0.01571996091466813</v>
+        <v>0.01330475007506189</v>
       </c>
       <c r="T23">
-        <v>0.01571996091466813</v>
+        <v>0.01330475007506189</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H24">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I24">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J24">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3993656666666666</v>
+        <v>1.51732</v>
       </c>
       <c r="N24">
-        <v>1.198097</v>
+        <v>4.55196</v>
       </c>
       <c r="O24">
-        <v>0.03719667912085346</v>
+        <v>0.1246761425202162</v>
       </c>
       <c r="P24">
-        <v>0.03719667912085346</v>
+        <v>0.1246761425202162</v>
       </c>
       <c r="Q24">
-        <v>0.0731029534301111</v>
+        <v>0.3132502082266667</v>
       </c>
       <c r="R24">
-        <v>0.6579265808709999</v>
+        <v>2.81925187404</v>
       </c>
       <c r="S24">
-        <v>0.001142647765187822</v>
+        <v>0.003674295576527774</v>
       </c>
       <c r="T24">
-        <v>0.001142647765187822</v>
+        <v>0.003674295576527774</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H25">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I25">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J25">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4835966666666667</v>
+        <v>0.504479</v>
       </c>
       <c r="N25">
-        <v>1.45079</v>
+        <v>1.513437</v>
       </c>
       <c r="O25">
-        <v>0.04504190403760547</v>
+        <v>0.04145236054520875</v>
       </c>
       <c r="P25">
-        <v>0.04504190403760547</v>
+        <v>0.04145236054520875</v>
       </c>
       <c r="Q25">
-        <v>0.08852124144111112</v>
+        <v>0.1041495213903333</v>
       </c>
       <c r="R25">
-        <v>0.79669117297</v>
+        <v>0.9373456925130002</v>
       </c>
       <c r="S25">
-        <v>0.001383645857770148</v>
+        <v>0.001221630874272503</v>
       </c>
       <c r="T25">
-        <v>0.001383645857770148</v>
+        <v>0.001221630874272504</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H26">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I26">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J26">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>1.018436666666667</v>
+        <v>1.709874333333333</v>
       </c>
       <c r="N26">
-        <v>3.05531</v>
+        <v>5.129623</v>
       </c>
       <c r="O26">
-        <v>0.09485658146605391</v>
+        <v>0.1404980729670249</v>
       </c>
       <c r="P26">
-        <v>0.09485658146605391</v>
+        <v>0.1404980729670249</v>
       </c>
       <c r="Q26">
-        <v>0.1864224554811111</v>
+        <v>0.3530029861585556</v>
       </c>
       <c r="R26">
-        <v>1.67780209933</v>
+        <v>3.177026875427</v>
       </c>
       <c r="S26">
-        <v>0.002913906923609696</v>
+        <v>0.004140579244579286</v>
       </c>
       <c r="T26">
-        <v>0.002913906923609696</v>
+        <v>0.004140579244579287</v>
       </c>
     </row>
   </sheetData>
